--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.853064834470956</v>
+        <v>18.853064830828998</v>
       </c>
       <c r="C2">
-        <v>17.985648798048032</v>
+        <v>17.985648798032116</v>
       </c>
       <c r="D2">
-        <v>15.232030138240532</v>
+        <v>15.232030149382069</v>
       </c>
       <c r="E2">
-        <v>7.1176810214953434</v>
+        <v>7.1176810305278764</v>
       </c>
       <c r="F2">
-        <v>15.818178176445258</v>
+        <v>15.818178191694528</v>
       </c>
       <c r="G2">
-        <v>27.279173683369834</v>
+        <v>27.279173687610694</v>
       </c>
       <c r="H2">
-        <v>10.137242578290682</v>
+        <v>10.137242584164426</v>
       </c>
       <c r="I2">
-        <v>17.518373306425588</v>
+        <v>17.518373309482115</v>
       </c>
       <c r="J2">
-        <v>19.209047647460181</v>
+        <v>19.209047657156134</v>
       </c>
       <c r="K2">
-        <v>21.553751840121208</v>
+        <v>21.553751850447725</v>
       </c>
       <c r="L2">
-        <v>29.760444057905261</v>
+        <v>29.760444054565994</v>
       </c>
       <c r="M2">
-        <v>31.030263384485238</v>
+        <v>31.03026338171145</v>
       </c>
       <c r="N2">
-        <v>18.230685720437464</v>
+        <v>18.230685721407269</v>
       </c>
       <c r="O2">
-        <v>9.922980867026979</v>
+        <v>9.9229808835474387</v>
       </c>
       <c r="P2">
-        <v>15.173181113061162</v>
+        <v>15.17318111196721</v>
       </c>
       <c r="Q2">
-        <v>36.804348437801082</v>
+        <v>36.804348443006006</v>
       </c>
       <c r="R2">
-        <v>24.716124460285357</v>
+        <v>24.716124480553788</v>
       </c>
       <c r="S2">
-        <v>11.802671437778486</v>
+        <v>11.802671421616367</v>
       </c>
       <c r="T2">
-        <v>11.095025446304987</v>
+        <v>11.095025438683706</v>
       </c>
       <c r="U2">
-        <v>24.136481927646628</v>
+        <v>24.136481947761979</v>
       </c>
       <c r="V2">
-        <v>18.931261190142891</v>
+        <v>18.931261203973179</v>
       </c>
       <c r="W2">
-        <v>24.152885106789029</v>
+        <v>24.152885115210609</v>
       </c>
       <c r="X2">
-        <v>22.894717116095478</v>
+        <v>22.894717117463017</v>
       </c>
       <c r="Y2">
-        <v>5.2885672207584093</v>
+        <v>5.2885672372158297</v>
       </c>
       <c r="Z2">
-        <v>16.238959787477995</v>
+        <v>16.238959807505751</v>
       </c>
       <c r="AA2">
-        <v>12.40031422522452</v>
+        <v>12.400314242130378</v>
       </c>
       <c r="AB2">
-        <v>17.11266879197683</v>
+        <v>17.112668820363524</v>
       </c>
       <c r="AC2">
-        <v>22.015291452570239</v>
+        <v>22.015291464392078</v>
       </c>
       <c r="AD2">
-        <v>5.3510832745466814</v>
+        <v>5.3510833089671337</v>
       </c>
       <c r="AE2">
-        <v>17.197093069667915</v>
+        <v>17.197093084528603</v>
       </c>
       <c r="AF2">
-        <v>16.298172634232571</v>
+        <v>16.298172647853676</v>
       </c>
       <c r="AG2">
-        <v>10.278882783090523</v>
+        <v>10.278882798631628</v>
       </c>
       <c r="AH2">
-        <v>12.603081266529443</v>
+        <v>12.603081282781773</v>
       </c>
       <c r="AI2">
-        <v>19.677384862862709</v>
+        <v>19.677384887632343</v>
       </c>
       <c r="AJ2">
-        <v>13.42540829856398</v>
+        <v>13.425408311165427</v>
       </c>
       <c r="AK2">
-        <v>17.999760564790677</v>
+        <v>17.999760578773419</v>
       </c>
       <c r="AL2">
-        <v>30.865169262767552</v>
+        <v>30.865169276262861</v>
       </c>
       <c r="AM2">
-        <v>12.831244388548669</v>
+        <v>12.831244400809567</v>
       </c>
       <c r="AN2">
-        <v>14.457480067931215</v>
+        <v>14.457480089173828</v>
       </c>
       <c r="AO2">
-        <v>9.2244175343413417</v>
+        <v>9.2244175431510484</v>
       </c>
       <c r="AP2">
-        <v>13.173847137000507</v>
+        <v>13.173847160592061</v>
       </c>
       <c r="AQ2">
-        <v>23.715900934549325</v>
+        <v>23.715900948530305</v>
       </c>
       <c r="AR2">
-        <v>11.192122106276486</v>
+        <v>11.192122116006658</v>
       </c>
       <c r="AS2">
-        <v>10.496345816390942</v>
+        <v>10.496345837172612</v>
       </c>
       <c r="AT2">
-        <v>16.72583604867782</v>
+        <v>16.725836065941735</v>
       </c>
       <c r="AU2">
-        <v>9.9432021136626076</v>
+        <v>9.9432021417039778</v>
       </c>
       <c r="AV2">
-        <v>13.49792532453074</v>
+        <v>13.497925349817592</v>
       </c>
       <c r="AW2">
-        <v>18.362973867881351</v>
+        <v>18.362973886573741</v>
       </c>
       <c r="AX2">
-        <v>10.868269958192741</v>
+        <v>10.868269981287938</v>
       </c>
       <c r="AY2">
-        <v>5.8480204656690944</v>
+        <v>5.8480204846831043</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.416474932921346</v>
+        <v>20.416474943166406</v>
       </c>
       <c r="C3">
-        <v>18.67170023375229</v>
+        <v>18.67170025207372</v>
       </c>
       <c r="D3">
-        <v>11.467876727071143</v>
+        <v>11.467876755502061</v>
       </c>
       <c r="E3">
-        <v>12.102937248593264</v>
+        <v>12.102937265804314</v>
       </c>
       <c r="F3">
-        <v>15.01558562686597</v>
+        <v>15.015585640184099</v>
       </c>
       <c r="G3">
-        <v>13.713200210822606</v>
+        <v>13.713200219553244</v>
       </c>
       <c r="H3">
-        <v>25.530382689689418</v>
+        <v>25.530382697888967</v>
       </c>
       <c r="I3">
-        <v>24.100755967130738</v>
+        <v>24.100755975343134</v>
       </c>
       <c r="J3">
-        <v>15.644044627262076</v>
+        <v>15.644044632748603</v>
       </c>
       <c r="K3">
-        <v>-6.3191828217790658</v>
+        <v>-6.3191828210913741</v>
       </c>
       <c r="L3">
-        <v>15.88276097015239</v>
+        <v>15.882760980861804</v>
       </c>
       <c r="M3">
-        <v>25.800322703756535</v>
+        <v>25.800554875420403</v>
       </c>
       <c r="N3">
-        <v>19.130057304239642</v>
+        <v>19.130057318493982</v>
       </c>
       <c r="O3">
-        <v>27.37930839578155</v>
+        <v>27.379308402361858</v>
       </c>
       <c r="P3">
-        <v>15.203621082193195</v>
+        <v>15.203621110292545</v>
       </c>
       <c r="Q3">
-        <v>16.683850648180965</v>
+        <v>16.683850653516231</v>
       </c>
       <c r="R3">
-        <v>28.037104521166384</v>
+        <v>28.037104532165927</v>
       </c>
       <c r="S3">
-        <v>12.672533534806917</v>
+        <v>12.672533538782659</v>
       </c>
       <c r="T3">
-        <v>14.836201642843264</v>
+        <v>14.83620165751347</v>
       </c>
       <c r="U3">
-        <v>15.678660488110154</v>
+        <v>15.678660499972523</v>
       </c>
       <c r="V3">
-        <v>14.759731147164302</v>
+        <v>14.75973115673321</v>
       </c>
       <c r="W3">
-        <v>19.532057912546975</v>
+        <v>19.532057922508841</v>
       </c>
       <c r="X3">
-        <v>26.404104893155022</v>
+        <v>26.404104903339032</v>
       </c>
       <c r="Y3">
-        <v>3.2282102901900771</v>
+        <v>3.2282103144767689</v>
       </c>
       <c r="Z3">
-        <v>9.2942720747788599</v>
+        <v>9.2942720974964459</v>
       </c>
       <c r="AA3">
-        <v>11.712859896176667</v>
+        <v>11.71285991457529</v>
       </c>
       <c r="AB3">
-        <v>11.321676078497092</v>
+        <v>11.321676103142067</v>
       </c>
       <c r="AC3">
-        <v>13.782946924066948</v>
+        <v>13.782946935252937</v>
       </c>
       <c r="AD3">
-        <v>10.348920992183309</v>
+        <v>10.348921010637525</v>
       </c>
       <c r="AE3">
-        <v>8.9621704610713664</v>
+        <v>8.962170468778254</v>
       </c>
       <c r="AF3">
-        <v>18.684842955840338</v>
+        <v>18.684842973087996</v>
       </c>
       <c r="AG3">
-        <v>14.955404621507284</v>
+        <v>14.955404632119837</v>
       </c>
       <c r="AH3">
-        <v>20.450569898450794</v>
+        <v>20.450569912699791</v>
       </c>
       <c r="AI3">
-        <v>-5.668898125339922</v>
+        <v>-5.6688980999055048</v>
       </c>
       <c r="AJ3">
-        <v>11.941398673740707</v>
+        <v>11.941398681396208</v>
       </c>
       <c r="AK3">
-        <v>17.43406512648238</v>
+        <v>17.434065150088259</v>
       </c>
       <c r="AL3">
-        <v>17.366429320603515</v>
+        <v>17.366429344584333</v>
       </c>
       <c r="AM3">
-        <v>13.772911777874867</v>
+        <v>13.772911805610249</v>
       </c>
       <c r="AN3">
-        <v>28.559313224913069</v>
+        <v>28.559313235409547</v>
       </c>
       <c r="AO3">
-        <v>13.641767397667252</v>
+        <v>13.64176744039014</v>
       </c>
       <c r="AP3">
-        <v>20.097708822998186</v>
+        <v>20.097708841074052</v>
       </c>
       <c r="AQ3">
-        <v>14.829643187159036</v>
+        <v>14.829643213104077</v>
       </c>
       <c r="AR3">
-        <v>10.938757124863344</v>
+        <v>10.938757138560618</v>
       </c>
       <c r="AS3">
-        <v>17.924921289016595</v>
+        <v>17.924921303100518</v>
       </c>
       <c r="AT3">
-        <v>9.0496040739689647</v>
+        <v>9.049604101254431</v>
       </c>
       <c r="AU3">
-        <v>16.070045720602138</v>
+        <v>16.070045721516351</v>
       </c>
       <c r="AV3">
-        <v>15.400938428866027</v>
+        <v>15.400938448448244</v>
       </c>
       <c r="AW3">
-        <v>20.41992797136362</v>
+        <v>20.419927988424774</v>
       </c>
       <c r="AX3">
-        <v>19.396183918482677</v>
+        <v>19.396183933592113</v>
       </c>
       <c r="AY3">
-        <v>3.4913682368080003</v>
+        <v>3.4913682651740601</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>18.853064830828998</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>17.985648798032116</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>15.232030149382069</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.1176810305278764</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>15.818178191694528</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>27.279173687610694</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.137242584164426</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.518373309482115</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.209047657156134</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.553751850447725</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>29.760444054565994</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>31.03026338171145</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>18.230685721407269</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.9229808835474387</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>15.17318111196721</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>36.804348443006006</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>24.716124480553788</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>11.802671421616367</v>
+        <v>18.231619123945961</v>
       </c>
       <c r="T2">
         <v>11.095025438683706</v>
@@ -588,55 +477,55 @@
         <v>16.238959807505751</v>
       </c>
       <c r="AA2">
-        <v>12.400314242130378</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.112668820363524</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>22.015291464392078</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.3510833089671337</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>17.197093084528603</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>16.298172647853676</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.278882798631628</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.603081282781773</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.677384887632343</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>13.425408311165427</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>17.999760578773419</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>30.865169276262861</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.831244400809567</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>14.457480089173828</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.2244175431510484</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.173847160592061</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>23.715900948530305</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>11.192122116006658</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>20.416474943166406</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>18.67170025207372</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11.467876755502061</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.102937265804314</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.015585640184099</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.713200219553244</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>25.530382697888967</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>24.100755975343134</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.644044632748603</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-6.3191828210913741</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.882760980861804</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>25.800554875420403</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>19.130057318493982</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>27.379308402361858</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.203621110292545</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.683850653516231</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>28.037104532165927</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>12.672533538782659</v>
@@ -743,55 +629,55 @@
         <v>9.2942720974964459</v>
       </c>
       <c r="AA3">
-        <v>11.71285991457529</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>11.321676103142067</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>13.782946935252937</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>10.348921010637525</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>8.962170468778254</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>18.684842973087996</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>14.955404632119837</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>20.450569912699791</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-5.6688980999055048</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>11.941398681396208</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>17.434065150088259</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>17.366429344584333</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>13.772911805610249</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>28.559313235409547</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>13.64176744039014</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>20.097708841074052</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>14.829643213104077</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>10.938757138560618</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>18.853064834470956</v>
-      </c>
       <c r="C2">
-        <v>20.847031751358486</v>
-      </c>
-      <c r="D2">
-        <v>15.232030138240532</v>
-      </c>
-      <c r="E2">
-        <v>7.1176810214953434</v>
+        <v>24.716124480553788</v>
       </c>
       <c r="F2">
         <v>15.818178176445258</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.416474932921346</v>
+        <v>22.129156949644027</v>
       </c>
       <c r="C3">
-        <v>18.67170023375229</v>
+        <v>28.037104532165927</v>
       </c>
       <c r="D3">
-        <v>11.467876727071143</v>
+        <v>28.046525003550357</v>
       </c>
       <c r="E3">
-        <v>12.102937248593264</v>
+        <v>12.731089505263753</v>
       </c>
       <c r="F3">
         <v>15.01558562686597</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18.853064834470956</v>
-      </c>
-      <c r="C2">
-        <v>20.847031751358486</v>
+        <v>19.517307671230981</v>
       </c>
       <c r="D2">
-        <v>15.232030138240532</v>
-      </c>
-      <c r="E2">
-        <v>7.1176810214953434</v>
+        <v>12.831244400809567</v>
       </c>
       <c r="F2">
         <v>15.818178176445258</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.416474932921346</v>
+        <v>19.130057318493982</v>
       </c>
       <c r="C3">
-        <v>18.67170023375229</v>
+        <v>22.129156949644027</v>
       </c>
       <c r="D3">
-        <v>11.467876727071143</v>
+        <v>13.772911805610249</v>
       </c>
       <c r="E3">
-        <v>5.2244176689332562</v>
+        <v>28.046525003550357</v>
       </c>
       <c r="F3">
         <v>15.01558562686597</v>

--- a/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_SEE_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>18.853064830828998</v>
+      </c>
+      <c r="C2">
+        <v>20.847031757985292</v>
+      </c>
+      <c r="D2">
+        <v>15.232030149382069</v>
+      </c>
+      <c r="E2">
+        <v>7.1176810305278764</v>
+      </c>
+      <c r="F2">
+        <v>15.818178191694528</v>
+      </c>
+      <c r="G2">
+        <v>24.412707184134774</v>
+      </c>
+      <c r="H2">
+        <v>10.137242584164426</v>
+      </c>
+      <c r="I2">
+        <v>14.067846520023295</v>
+      </c>
+      <c r="J2">
+        <v>19.209047657156134</v>
+      </c>
+      <c r="K2">
+        <v>21.553751850447725</v>
+      </c>
+      <c r="L2">
+        <v>30.383268162357695</v>
+      </c>
+      <c r="M2">
+        <v>24.555928643300092</v>
+      </c>
+      <c r="N2">
         <v>19.517307671230981</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.310082788416651</v>
+      </c>
+      <c r="Q2">
+        <v>36.804348443006006</v>
+      </c>
+      <c r="R2">
+        <v>24.716124480553788</v>
+      </c>
+      <c r="T2">
+        <v>14.192432100812141</v>
+      </c>
+      <c r="U2">
+        <v>24.136481947761979</v>
+      </c>
+      <c r="V2">
+        <v>16.137005536958384</v>
+      </c>
+      <c r="W2">
+        <v>24.152885115210609</v>
+      </c>
+      <c r="X2">
+        <v>22.894717117463017</v>
+      </c>
+      <c r="Y2">
+        <v>5.2885672372158297</v>
+      </c>
+      <c r="Z2">
+        <v>16.238959807505751</v>
+      </c>
+      <c r="AA2">
+        <v>12.400314242130378</v>
+      </c>
+      <c r="AB2">
+        <v>17.112668820363524</v>
+      </c>
+      <c r="AC2">
+        <v>22.015291464392078</v>
+      </c>
+      <c r="AD2">
+        <v>5.3510833089671337</v>
+      </c>
+      <c r="AE2">
+        <v>17.197093084528603</v>
+      </c>
+      <c r="AF2">
+        <v>16.298172647853676</v>
+      </c>
+      <c r="AG2">
+        <v>10.278882798631628</v>
+      </c>
+      <c r="AH2">
+        <v>12.603081282781773</v>
+      </c>
+      <c r="AI2">
+        <v>19.677384887632343</v>
+      </c>
+      <c r="AJ2">
+        <v>13.425408311165427</v>
+      </c>
+      <c r="AK2">
+        <v>17.999760578773419</v>
+      </c>
+      <c r="AL2">
+        <v>30.865169276262861</v>
+      </c>
+      <c r="AM2">
         <v>12.831244400809567</v>
       </c>
-      <c r="F2">
-        <v>15.818178176445258</v>
-      </c>
-      <c r="G2">
-        <v>24.412707184351461</v>
-      </c>
-      <c r="H2">
-        <v>10.137242578290682</v>
-      </c>
-      <c r="I2">
-        <v>14.067846504791476</v>
-      </c>
-      <c r="J2">
-        <v>19.209047647460181</v>
-      </c>
-      <c r="K2">
-        <v>21.553751840121208</v>
-      </c>
-      <c r="L2">
-        <v>30.383268153965957</v>
-      </c>
-      <c r="M2">
-        <v>24.555928652974046</v>
-      </c>
-      <c r="N2">
-        <v>19.517307664660507</v>
-      </c>
-      <c r="P2">
-        <v>14.31008279079299</v>
-      </c>
-      <c r="Q2">
-        <v>36.804348437801082</v>
-      </c>
-      <c r="R2">
-        <v>24.716124460285357</v>
-      </c>
-      <c r="T2">
-        <v>14.192432094030096</v>
-      </c>
-      <c r="U2">
-        <v>24.136481927646628</v>
-      </c>
-      <c r="V2">
-        <v>16.137005515167459</v>
-      </c>
-      <c r="W2">
-        <v>24.152885106789029</v>
-      </c>
-      <c r="X2">
-        <v>22.894717116095478</v>
-      </c>
-      <c r="Y2">
-        <v>5.2885672207584093</v>
-      </c>
-      <c r="Z2">
-        <v>16.238959787477995</v>
-      </c>
-      <c r="AA2">
-        <v>12.40031422522452</v>
-      </c>
-      <c r="AB2">
-        <v>17.11266879197683</v>
-      </c>
-      <c r="AC2">
-        <v>22.015291452570239</v>
-      </c>
-      <c r="AD2">
-        <v>5.3510832745466814</v>
-      </c>
-      <c r="AE2">
-        <v>17.197093069667915</v>
-      </c>
-      <c r="AF2">
-        <v>16.298172634232571</v>
-      </c>
-      <c r="AG2">
-        <v>10.278882783090523</v>
-      </c>
-      <c r="AH2">
-        <v>12.603081266529443</v>
-      </c>
-      <c r="AI2">
-        <v>19.677384862862709</v>
-      </c>
-      <c r="AJ2">
-        <v>13.42540829856398</v>
-      </c>
-      <c r="AK2">
-        <v>17.999760564790677</v>
-      </c>
-      <c r="AL2">
-        <v>30.865169262767552</v>
-      </c>
-      <c r="AM2">
-        <v>12.831244388548669</v>
-      </c>
       <c r="AO2">
-        <v>9.2244175343413417</v>
+        <v>9.2244175431510484</v>
       </c>
       <c r="AP2">
-        <v>10.982885081017287</v>
+        <v>10.982885099132545</v>
       </c>
       <c r="AR2">
-        <v>11.192122106276486</v>
+        <v>11.192122116006658</v>
       </c>
       <c r="AS2">
-        <v>10.496345816390942</v>
+        <v>10.496345837172612</v>
       </c>
       <c r="AT2">
-        <v>16.72583604867782</v>
+        <v>16.725836065941735</v>
       </c>
       <c r="AU2">
-        <v>15.294176296179899</v>
+        <v>15.294176309496038</v>
       </c>
       <c r="AV2">
-        <v>13.49792532453074</v>
+        <v>13.497925349817592</v>
       </c>
       <c r="AW2">
-        <v>18.362973867881351</v>
+        <v>18.362973886573741</v>
       </c>
       <c r="AX2">
-        <v>10.868269958192741</v>
+        <v>10.868269981287938</v>
       </c>
       <c r="AY2">
-        <v>5.8480204656690944</v>
+        <v>5.8480204846831043</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>20.416474943166406</v>
+      </c>
+      <c r="C3">
+        <v>18.67170025207372</v>
+      </c>
+      <c r="D3">
+        <v>11.467876755502061</v>
+      </c>
+      <c r="E3">
+        <v>5.2244176888930269</v>
+      </c>
+      <c r="F3">
+        <v>15.015585640184099</v>
+      </c>
+      <c r="G3">
+        <v>13.713200219553244</v>
+      </c>
+      <c r="H3">
+        <v>25.530382697888967</v>
+      </c>
+      <c r="I3">
+        <v>24.100755975343134</v>
+      </c>
+      <c r="J3">
+        <v>15.644044632748603</v>
+      </c>
+      <c r="K3">
+        <v>-2.6008386293663648</v>
+      </c>
+      <c r="L3">
+        <v>15.882760980861804</v>
+      </c>
+      <c r="M3">
+        <v>30.745626493463021</v>
+      </c>
+      <c r="N3">
         <v>19.130057318493982</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>22.129156949644027</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>15.203621110292545</v>
+      </c>
+      <c r="Q3">
+        <v>16.683850653516231</v>
+      </c>
+      <c r="R3">
+        <v>28.037104532165927</v>
+      </c>
+      <c r="S3">
+        <v>12.672533538782659</v>
+      </c>
+      <c r="T3">
+        <v>14.83620165751347</v>
+      </c>
+      <c r="U3">
+        <v>15.678660499972523</v>
+      </c>
+      <c r="V3">
+        <v>13.074097151919318</v>
+      </c>
+      <c r="W3">
+        <v>19.532057922508841</v>
+      </c>
+      <c r="X3">
+        <v>26.404104903339032</v>
+      </c>
+      <c r="Y3">
+        <v>3.2282103144767689</v>
+      </c>
+      <c r="Z3">
+        <v>9.2942720974964459</v>
+      </c>
+      <c r="AA3">
+        <v>11.71285991457529</v>
+      </c>
+      <c r="AB3">
+        <v>11.321676103142067</v>
+      </c>
+      <c r="AC3">
+        <v>13.782946935252937</v>
+      </c>
+      <c r="AD3">
+        <v>10.348921010637525</v>
+      </c>
+      <c r="AE3">
+        <v>8.962170468778254</v>
+      </c>
+      <c r="AF3">
+        <v>18.684842973087996</v>
+      </c>
+      <c r="AG3">
+        <v>14.955404632119837</v>
+      </c>
+      <c r="AH3">
+        <v>20.450569912699791</v>
+      </c>
+      <c r="AI3">
+        <v>17.414361921128943</v>
+      </c>
+      <c r="AJ3">
+        <v>11.941398681396208</v>
+      </c>
+      <c r="AK3">
+        <v>17.434065150088259</v>
+      </c>
+      <c r="AL3">
+        <v>17.366429344584333</v>
+      </c>
+      <c r="AM3">
         <v>13.772911805610249</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>28.046525003550357</v>
       </c>
-      <c r="F3">
-        <v>15.01558562686597</v>
-      </c>
-      <c r="G3">
-        <v>13.713200210822606</v>
-      </c>
-      <c r="H3">
-        <v>25.530382689689418</v>
-      </c>
-      <c r="I3">
-        <v>24.100755967130738</v>
-      </c>
-      <c r="J3">
-        <v>15.644044627262076</v>
-      </c>
-      <c r="K3">
-        <v>-2.6008386387597398</v>
-      </c>
-      <c r="L3">
-        <v>15.88276097015239</v>
-      </c>
-      <c r="M3">
-        <v>30.745471037252116</v>
-      </c>
-      <c r="N3">
-        <v>19.130057304239642</v>
-      </c>
-      <c r="O3">
-        <v>22.129156938609469</v>
-      </c>
-      <c r="P3">
-        <v>15.203621082193195</v>
-      </c>
-      <c r="Q3">
-        <v>16.683850648180965</v>
-      </c>
-      <c r="R3">
-        <v>28.037104521166384</v>
-      </c>
-      <c r="S3">
-        <v>12.672533534806917</v>
-      </c>
-      <c r="T3">
-        <v>14.836201642843264</v>
-      </c>
-      <c r="U3">
-        <v>15.678660488110154</v>
-      </c>
-      <c r="V3">
-        <v>13.07409713088191</v>
-      </c>
-      <c r="W3">
-        <v>19.532057912546975</v>
-      </c>
-      <c r="X3">
-        <v>26.404104893155022</v>
-      </c>
-      <c r="Y3">
-        <v>3.2282102901900771</v>
-      </c>
-      <c r="Z3">
-        <v>9.2942720747788599</v>
-      </c>
-      <c r="AA3">
-        <v>11.712859896176667</v>
-      </c>
-      <c r="AB3">
-        <v>11.321676078497092</v>
-      </c>
-      <c r="AC3">
-        <v>13.782946924066948</v>
-      </c>
-      <c r="AD3">
-        <v>10.348920992183309</v>
-      </c>
-      <c r="AE3">
-        <v>8.9621704610713664</v>
-      </c>
-      <c r="AF3">
-        <v>18.684842955840338</v>
-      </c>
-      <c r="AG3">
-        <v>14.955404621507284</v>
-      </c>
-      <c r="AH3">
-        <v>20.450569898450794</v>
-      </c>
-      <c r="AI3">
-        <v>17.414361894253489</v>
-      </c>
-      <c r="AJ3">
-        <v>11.941398673740707</v>
-      </c>
-      <c r="AK3">
-        <v>17.43406512648238</v>
-      </c>
-      <c r="AL3">
-        <v>17.366429320603515</v>
-      </c>
-      <c r="AM3">
-        <v>13.772911777874867</v>
-      </c>
-      <c r="AN3">
-        <v>28.046524989732575</v>
-      </c>
       <c r="AO3">
-        <v>13.641767397667252</v>
+        <v>13.64176744039014</v>
       </c>
       <c r="AP3">
-        <v>20.097708822998186</v>
+        <v>20.097708841074052</v>
       </c>
       <c r="AQ3">
-        <v>12.731089500389146</v>
+        <v>12.731089505263753</v>
       </c>
       <c r="AR3">
-        <v>10.938757124863344</v>
+        <v>10.938757138560618</v>
       </c>
       <c r="AS3">
-        <v>17.924921289016595</v>
+        <v>17.924921303100518</v>
       </c>
       <c r="AT3">
-        <v>9.0496040739689647</v>
+        <v>9.049604101254431</v>
       </c>
       <c r="AU3">
-        <v>15.482900222070271</v>
+        <v>15.482900204833129</v>
       </c>
       <c r="AV3">
-        <v>15.400938428866027</v>
+        <v>15.400938448448244</v>
       </c>
       <c r="AW3">
-        <v>20.41992797136362</v>
+        <v>20.419927988424774</v>
       </c>
       <c r="AX3">
-        <v>19.396183918482677</v>
+        <v>19.396183933592113</v>
       </c>
       <c r="AY3">
-        <v>3.4913682368080003</v>
+        <v>3.4913682651740601</v>
       </c>
     </row>
   </sheetData>
